--- a/EE-CL-002-01_Cable-Drawing-Checklist.xlsx
+++ b/EE-CL-002-01_Cable-Drawing-Checklist.xlsx
@@ -2,13 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnp\Documents\Projects\resume\portfolio\EE_Design_Process\Docs_New\Checklists\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DDD39A-32BC-45A6-B186-B50CD599A8AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B178A4-6AA9-49EB-8A61-241B30BB7731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B489F90F-A2BB-4F24-A3BF-157F4623A10E}"/>
   </bookViews>
@@ -417,6 +412,75 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -441,15 +505,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -467,66 +522,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -959,6 +954,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -978,50 +974,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="36"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="19"/>
     </row>
     <row r="2" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="48"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="31"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -1044,17 +1040,17 @@
       <c r="AC2" s="2"/>
     </row>
     <row r="3" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="45"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="28"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -1077,17 +1073,17 @@
       <c r="AC3" s="2"/>
     </row>
     <row r="4" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="48"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="31"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -1110,17 +1106,17 @@
       <c r="AC4" s="2"/>
     </row>
     <row r="5" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="45"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="28"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -1143,17 +1139,17 @@
       <c r="AC5" s="2"/>
     </row>
     <row r="6" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="51"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="34"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -1176,17 +1172,17 @@
       <c r="AC6" s="2"/>
     </row>
     <row r="7" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="45"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="28"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -1209,17 +1205,17 @@
       <c r="AC7" s="2"/>
     </row>
     <row r="8" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="19"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="42"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -1291,363 +1287,363 @@
       <c r="F10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="G10" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="27" t="s">
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="47"/>
+      <c r="U10" s="48"/>
+      <c r="V10" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="W10" s="27"/>
-      <c r="X10" s="27"/>
-      <c r="Y10" s="27"/>
-      <c r="Z10" s="27"/>
-      <c r="AA10" s="27"/>
-      <c r="AB10" s="27"/>
-      <c r="AC10" s="28"/>
+      <c r="W10" s="47"/>
+      <c r="X10" s="47"/>
+      <c r="Y10" s="47"/>
+      <c r="Z10" s="47"/>
+      <c r="AA10" s="47"/>
+      <c r="AB10" s="47"/>
+      <c r="AC10" s="48"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>1</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="23"/>
-      <c r="W11" s="23"/>
-      <c r="X11" s="23"/>
-      <c r="Y11" s="23"/>
-      <c r="Z11" s="23"/>
-      <c r="AA11" s="23"/>
-      <c r="AB11" s="23"/>
-      <c r="AC11" s="25"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="35"/>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="35"/>
+      <c r="Z11" s="35"/>
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="35"/>
+      <c r="AC11" s="36"/>
     </row>
     <row r="12" spans="1:29" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>2</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="G12" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="25"/>
-      <c r="V12" s="23"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="23"/>
-      <c r="Y12" s="23"/>
-      <c r="Z12" s="23"/>
-      <c r="AA12" s="23"/>
-      <c r="AB12" s="23"/>
-      <c r="AC12" s="25"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="35"/>
+      <c r="X12" s="35"/>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="35"/>
+      <c r="AA12" s="35"/>
+      <c r="AB12" s="35"/>
+      <c r="AC12" s="36"/>
     </row>
     <row r="13" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>3</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="25"/>
-      <c r="V13" s="23"/>
-      <c r="W13" s="23"/>
-      <c r="X13" s="23"/>
-      <c r="Y13" s="23"/>
-      <c r="Z13" s="23"/>
-      <c r="AA13" s="23"/>
-      <c r="AB13" s="23"/>
-      <c r="AC13" s="25"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="35"/>
+      <c r="W13" s="35"/>
+      <c r="X13" s="35"/>
+      <c r="Y13" s="35"/>
+      <c r="Z13" s="35"/>
+      <c r="AA13" s="35"/>
+      <c r="AB13" s="35"/>
+      <c r="AC13" s="36"/>
     </row>
     <row r="14" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>4</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="23"/>
-      <c r="W14" s="23"/>
-      <c r="X14" s="23"/>
-      <c r="Y14" s="23"/>
-      <c r="Z14" s="23"/>
-      <c r="AA14" s="23"/>
-      <c r="AB14" s="23"/>
-      <c r="AC14" s="25"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="35"/>
+      <c r="X14" s="35"/>
+      <c r="Y14" s="35"/>
+      <c r="Z14" s="35"/>
+      <c r="AA14" s="35"/>
+      <c r="AB14" s="35"/>
+      <c r="AC14" s="36"/>
     </row>
     <row r="15" spans="1:29" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>5</v>
       </c>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="31"/>
-      <c r="V15" s="23"/>
-      <c r="W15" s="23"/>
-      <c r="X15" s="23"/>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="23"/>
-      <c r="AA15" s="23"/>
-      <c r="AB15" s="23"/>
-      <c r="AC15" s="25"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="50"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="51"/>
+      <c r="V15" s="35"/>
+      <c r="W15" s="35"/>
+      <c r="X15" s="35"/>
+      <c r="Y15" s="35"/>
+      <c r="Z15" s="35"/>
+      <c r="AA15" s="35"/>
+      <c r="AB15" s="35"/>
+      <c r="AC15" s="36"/>
     </row>
     <row r="16" spans="1:29" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>6</v>
       </c>
-      <c r="G16" s="29" t="s">
+      <c r="G16" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="31"/>
-      <c r="V16" s="23"/>
-      <c r="W16" s="23"/>
-      <c r="X16" s="23"/>
-      <c r="Y16" s="23"/>
-      <c r="Z16" s="23"/>
-      <c r="AA16" s="23"/>
-      <c r="AB16" s="23"/>
-      <c r="AC16" s="25"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="50"/>
+      <c r="T16" s="50"/>
+      <c r="U16" s="51"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="35"/>
+      <c r="Y16" s="35"/>
+      <c r="Z16" s="35"/>
+      <c r="AA16" s="35"/>
+      <c r="AB16" s="35"/>
+      <c r="AC16" s="36"/>
     </row>
     <row r="17" spans="1:29" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>7</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="G17" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="25"/>
-      <c r="V17" s="23"/>
-      <c r="W17" s="23"/>
-      <c r="X17" s="23"/>
-      <c r="Y17" s="23"/>
-      <c r="Z17" s="23"/>
-      <c r="AA17" s="23"/>
-      <c r="AB17" s="23"/>
-      <c r="AC17" s="25"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="35"/>
+      <c r="X17" s="35"/>
+      <c r="Y17" s="35"/>
+      <c r="Z17" s="35"/>
+      <c r="AA17" s="35"/>
+      <c r="AB17" s="35"/>
+      <c r="AC17" s="36"/>
     </row>
     <row r="18" spans="1:29" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>8</v>
       </c>
-      <c r="G18" s="24" t="s">
+      <c r="G18" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="25"/>
-      <c r="V18" s="23"/>
-      <c r="W18" s="23"/>
-      <c r="X18" s="23"/>
-      <c r="Y18" s="23"/>
-      <c r="Z18" s="23"/>
-      <c r="AA18" s="23"/>
-      <c r="AB18" s="23"/>
-      <c r="AC18" s="25"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="35"/>
+      <c r="X18" s="35"/>
+      <c r="Y18" s="35"/>
+      <c r="Z18" s="35"/>
+      <c r="AA18" s="35"/>
+      <c r="AB18" s="35"/>
+      <c r="AC18" s="36"/>
     </row>
     <row r="19" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>9</v>
       </c>
-      <c r="G19" s="24" t="s">
+      <c r="G19" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="25"/>
-      <c r="V19" s="23"/>
-      <c r="W19" s="23"/>
-      <c r="X19" s="23"/>
-      <c r="Y19" s="23"/>
-      <c r="Z19" s="23"/>
-      <c r="AA19" s="23"/>
-      <c r="AB19" s="23"/>
-      <c r="AC19" s="25"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="35"/>
+      <c r="X19" s="35"/>
+      <c r="Y19" s="35"/>
+      <c r="Z19" s="35"/>
+      <c r="AA19" s="35"/>
+      <c r="AB19" s="35"/>
+      <c r="AC19" s="36"/>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>10</v>
       </c>
-      <c r="G20" s="24" t="s">
+      <c r="G20" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="23"/>
-      <c r="U20" s="25"/>
-      <c r="V20" s="23"/>
-      <c r="W20" s="23"/>
-      <c r="X20" s="23"/>
-      <c r="Y20" s="23"/>
-      <c r="Z20" s="23"/>
-      <c r="AA20" s="23"/>
-      <c r="AB20" s="23"/>
-      <c r="AC20" s="25"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="35"/>
+      <c r="X20" s="35"/>
+      <c r="Y20" s="35"/>
+      <c r="Z20" s="35"/>
+      <c r="AA20" s="35"/>
+      <c r="AB20" s="35"/>
+      <c r="AC20" s="36"/>
     </row>
     <row r="21" spans="1:29" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>11</v>
       </c>
-      <c r="G21" s="24" t="s">
+      <c r="G21" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="23"/>
-      <c r="U21" s="25"/>
-      <c r="V21" s="23"/>
-      <c r="W21" s="23"/>
-      <c r="X21" s="23"/>
-      <c r="Y21" s="23"/>
-      <c r="Z21" s="23"/>
-      <c r="AA21" s="23"/>
-      <c r="AB21" s="23"/>
-      <c r="AC21" s="25"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="35"/>
+      <c r="W21" s="35"/>
+      <c r="X21" s="35"/>
+      <c r="Y21" s="35"/>
+      <c r="Z21" s="35"/>
+      <c r="AA21" s="35"/>
+      <c r="AB21" s="35"/>
+      <c r="AC21" s="36"/>
     </row>
     <row r="22" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
@@ -1656,111 +1652,82 @@
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="22"/>
-      <c r="V22" s="20"/>
-      <c r="W22" s="21"/>
-      <c r="X22" s="21"/>
-      <c r="Y22" s="21"/>
-      <c r="Z22" s="21"/>
-      <c r="AA22" s="21"/>
-      <c r="AB22" s="21"/>
-      <c r="AC22" s="22"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="44"/>
+      <c r="S22" s="44"/>
+      <c r="T22" s="44"/>
+      <c r="U22" s="45"/>
+      <c r="V22" s="43"/>
+      <c r="W22" s="44"/>
+      <c r="X22" s="44"/>
+      <c r="Y22" s="44"/>
+      <c r="Z22" s="44"/>
+      <c r="AA22" s="44"/>
+      <c r="AB22" s="44"/>
+      <c r="AC22" s="45"/>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="23"/>
-      <c r="T23" s="23"/>
-      <c r="U23" s="23"/>
-      <c r="V23" s="23"/>
-      <c r="W23" s="23"/>
-      <c r="X23" s="23"/>
-      <c r="Y23" s="23"/>
-      <c r="Z23" s="23"/>
-      <c r="AA23" s="23"/>
-      <c r="AB23" s="23"/>
-      <c r="AC23" s="23"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="35"/>
+      <c r="W23" s="35"/>
+      <c r="X23" s="35"/>
+      <c r="Y23" s="35"/>
+      <c r="Z23" s="35"/>
+      <c r="AA23" s="35"/>
+      <c r="AB23" s="35"/>
+      <c r="AC23" s="35"/>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="23"/>
-      <c r="U24" s="23"/>
-      <c r="V24" s="23"/>
-      <c r="W24" s="23"/>
-      <c r="X24" s="23"/>
-      <c r="Y24" s="23"/>
-      <c r="Z24" s="23"/>
-      <c r="AA24" s="23"/>
-      <c r="AB24" s="23"/>
-      <c r="AC24" s="23"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="35"/>
+      <c r="V24" s="35"/>
+      <c r="W24" s="35"/>
+      <c r="X24" s="35"/>
+      <c r="Y24" s="35"/>
+      <c r="Z24" s="35"/>
+      <c r="AA24" s="35"/>
+      <c r="AB24" s="35"/>
+      <c r="AC24" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A1:AC1"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="V18:AC18"/>
-    <mergeCell ref="V19:AC19"/>
-    <mergeCell ref="V20:AC20"/>
-    <mergeCell ref="V21:AC21"/>
-    <mergeCell ref="V24:AC24"/>
-    <mergeCell ref="V23:AC23"/>
-    <mergeCell ref="V13:AC13"/>
-    <mergeCell ref="V14:AC14"/>
-    <mergeCell ref="V15:AC15"/>
-    <mergeCell ref="V16:AC16"/>
-    <mergeCell ref="V17:AC17"/>
-    <mergeCell ref="G24:U24"/>
-    <mergeCell ref="G19:U19"/>
-    <mergeCell ref="G20:U20"/>
-    <mergeCell ref="G21:U21"/>
-    <mergeCell ref="G18:U18"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:I8"/>
     <mergeCell ref="V22:AC22"/>
@@ -1777,6 +1744,35 @@
     <mergeCell ref="V10:AC10"/>
     <mergeCell ref="V11:AC11"/>
     <mergeCell ref="V12:AC12"/>
+    <mergeCell ref="G24:U24"/>
+    <mergeCell ref="G19:U19"/>
+    <mergeCell ref="G20:U20"/>
+    <mergeCell ref="G21:U21"/>
+    <mergeCell ref="G18:U18"/>
+    <mergeCell ref="V13:AC13"/>
+    <mergeCell ref="V14:AC14"/>
+    <mergeCell ref="V15:AC15"/>
+    <mergeCell ref="V16:AC16"/>
+    <mergeCell ref="V17:AC17"/>
+    <mergeCell ref="V18:AC18"/>
+    <mergeCell ref="V19:AC19"/>
+    <mergeCell ref="V20:AC20"/>
+    <mergeCell ref="V21:AC21"/>
+    <mergeCell ref="V24:AC24"/>
+    <mergeCell ref="V23:AC23"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A1:AC1"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C6:I6"/>
   </mergeCells>
   <conditionalFormatting sqref="A10:AC22">
     <cfRule type="expression" dxfId="0" priority="1">
